--- a/doc/Bayesian_Tables.xlsx
+++ b/doc/Bayesian_Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>Estimate</t>
   </si>
@@ -149,16 +149,19 @@
     <t>[7058.960, 7360.038]*</t>
   </si>
   <si>
-    <t>[9881.989 , 10404.936]*</t>
-  </si>
-  <si>
     <t>Fit Statistic: Chi-square C.I.</t>
+  </si>
+  <si>
+    <t>[11766.223, 12264.032]*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,220 +654,218 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>-0.26</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="11">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <v>-0.37</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="11">
         <v>-0.15</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
         <v>-0.20899999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
         <v>-0.33600000000000002</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="11">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
         <v>-0.159</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="11">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="11">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="U3" s="4">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0.129</v>
-      </c>
-      <c r="W3" s="4">
-        <v>-0.246</v>
-      </c>
-      <c r="X3" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="Y3" s="4"/>
+      <c r="S3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="U3" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-0.183</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.114</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="11">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>-0.42199999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="11">
         <v>0.308</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <v>-3.1E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="11">
         <v>0.189</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="11">
         <v>0.437</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="11">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="11">
         <v>0.35799999999999998</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="11">
         <v>0.2</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="11">
         <v>0.223</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="11">
         <v>-0.245</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="W4" s="4">
-        <v>-0.24</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Y4" s="4"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.57899999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="11">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
         <v>-0.441</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="11">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="11">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="11">
         <v>0.02</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="11">
         <v>-0.33900000000000002</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="11">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="11">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="11">
         <v>2.4E-2</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="11">
         <v>-0.34200000000000003</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="11">
         <v>-2E-3</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4">
-        <v>-0.248</v>
-      </c>
-      <c r="U5" s="4">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="V5" s="4">
+      <c r="S5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="U5" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W5" s="4">
-        <v>-0.44</v>
-      </c>
-      <c r="X5" s="4">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="Y5" s="4" t="s">
+      <c r="W5" s="1">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -868,196 +873,194 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>0.20100000000000001</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="11">
         <v>0.06</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="11">
         <v>0.314</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="11">
         <v>0.41799999999999998</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="11">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
         <v>0.152</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="11">
         <v>0.44</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0.106</v>
-      </c>
-      <c r="U6" s="4">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="V6" s="4">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="W6" s="4">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0.253</v>
-      </c>
-      <c r="Y6" s="4"/>
+      <c r="S6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-0.129</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.186</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="11">
         <v>0.155</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="11">
         <v>0.48799999999999999</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="11">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="11">
         <v>0.311</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="11">
         <v>0.158</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="11">
         <v>0.34399999999999997</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="11">
         <v>-0.251</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="11">
         <v>0.35699999999999998</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="W7" s="4">
-        <v>-0.153</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="Y7" s="4"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="12">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-0.106</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.51600000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>0.155</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="11">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="11">
         <v>0.02</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="11">
         <v>0.29399999999999998</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="11">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="11">
         <v>-1.2E-2</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="11">
         <v>0.29099999999999998</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>0.188</v>
-      </c>
-      <c r="U8" s="4">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="V8" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="W8" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+      <c r="S8" s="11"/>
+      <c r="T8" s="12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="U8" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1065,593 +1068,584 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="11">
         <v>7.8E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="11">
         <v>0.377</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="11">
         <v>-0.183</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="11">
         <v>0.114</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="11">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="11">
         <v>0.39</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="11">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="W9" s="4">
-        <v>-0.17399999999999999</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="Y9" s="4"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U9" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.18099999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>-0.06</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="11">
         <v>0.12</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="11">
         <v>-0.17</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="11">
         <v>0.04</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
         <v>-0.08</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="11">
         <v>6.2E-2</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="11">
         <v>-0.192</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="U10" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="W10" s="4">
-        <v>-0.17299999999999999</v>
-      </c>
-      <c r="X10" s="4">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="Y10" s="4"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="X10" s="1">
+        <v>9.4E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="11">
         <v>-0.27300000000000002</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="11">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
         <v>-0.105</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="11">
         <v>0.112</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="11">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="11">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="U11" s="4">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="W11" s="4">
-        <v>-0.224</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0.127</v>
-      </c>
-      <c r="Y11" s="4"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="U11" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-0.188</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.187</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="11">
         <v>0.02</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="11">
         <v>2E-3</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="11">
         <v>1.9E-2</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="U12" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="V12" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Y12" s="4"/>
+      <c r="S12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U12" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-2E-3</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
         <v>0.115</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4"/>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="11">
         <v>5.5E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11">
         <v>2.7E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="11">
         <v>0.246</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="M14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
         <v>0.129</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="11">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="11">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="11">
         <v>0.245</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="U14" s="4">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="V14" s="4">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="W14" s="4">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="Y14" s="4"/>
+      <c r="S14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.377</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="11">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
         <v>0.10100000000000001</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="11">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="11">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="11">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="11">
         <v>0.26</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="U15" s="4">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="V15" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="W15" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="Y15" s="4"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="U15" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.26400000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="11">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="11">
         <v>0.214</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="11">
         <v>0.10299999999999999</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="11">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="11">
         <v>0.20100000000000001</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="U16" s="4">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="V16" s="4">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="W16" s="4">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="Y16" s="4"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="12">
+        <v>0.114</v>
+      </c>
+      <c r="U16" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.32800000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="11">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="11">
         <v>0.377</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="11">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="11">
         <v>0.105</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="11">
         <v>0.29099999999999998</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="11">
         <v>-0.155</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="11">
         <v>0.26400000000000001</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="U17" s="4">
+      <c r="S17" s="11"/>
+      <c r="T17" s="12">
         <v>0.107</v>
       </c>
-      <c r="V17" s="4">
-        <v>0.124</v>
-      </c>
-      <c r="W17" s="4">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="Y17" s="4"/>
+      <c r="U17" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.33600000000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
         <v>0.42899999999999999</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
         <v>0.26700000000000002</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="11">
         <v>0.60099999999999998</v>
       </c>
-      <c r="S18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="U18" s="4">
+      <c r="S18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="12">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="U18" s="12">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="X18" s="4">
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="X18" s="1">
         <v>0.65900000000000003</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1659,101 +1653,100 @@
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="11">
         <v>2E-3</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="11">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="11">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="11">
         <v>1E-3</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="U19" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="W19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="X19" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="Y19" s="4"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="U19" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
         <v>-1E-3</v>
       </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T20" s="4">
+      <c r="R20" s="11">
+        <v>0</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="12">
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="W20" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4" t="s">
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1761,50 +1754,50 @@
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="11">
         <v>0.13100000000000001</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="11">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="11">
         <v>-0.48499999999999999</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="11">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4">
-        <v>-0.253</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="V21" s="4">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="W21" s="4">
-        <v>-0.54600000000000004</v>
-      </c>
-      <c r="X21" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="S21" s="11"/>
+      <c r="T21" s="12">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="V21" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-0.53300000000000003</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1812,320 +1805,318 @@
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
         <v>-0.27100000000000002</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="11">
         <v>-0.53200000000000003</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="11">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
-        <v>-0.20899999999999999</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="V22" s="4">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="W22" s="4">
-        <v>-0.48099999999999998</v>
-      </c>
-      <c r="X22" s="4">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="Y22" s="4"/>
+      <c r="S22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="W22" s="1">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.13500000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="11">
         <v>0.152</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="11">
         <v>0.27100000000000002</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="11">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="11">
         <v>0.188</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4">
-        <v>-8.7999999999999995E-2</v>
-      </c>
-      <c r="U23" s="4">
+      <c r="S23" s="11"/>
+      <c r="T23" s="12">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="U23" s="12">
         <v>0.157</v>
       </c>
-      <c r="V23" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W23" s="4">
-        <v>-0.40699999999999997</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0.216</v>
-      </c>
-      <c r="Y23" s="4"/>
+      <c r="V23" s="1">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.25800000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="11">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="11">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="11">
         <v>0.20799999999999999</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="W24" s="4">
-        <v>-0.249</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0.124</v>
-      </c>
-      <c r="Y24" s="4"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="U24" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="W24" s="1">
+        <v>-0.254</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.11899999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11">
         <v>-6.2E-2</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="11">
         <v>1E-3</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="11">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="11">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="U25" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="V25" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="W25" s="4">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="X25" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>1</v>
+      <c r="S25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="V25" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W25" s="1">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="X25" s="1">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="U26" s="4">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="W26" s="4">
-        <v>-0.29799999999999999</v>
-      </c>
-      <c r="X26" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="Y26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="12">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="U26" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>-0.443</v>
+      </c>
+      <c r="X26" s="1">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="U27" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="V27" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="W27" s="4">
-        <v>-0.20599999999999999</v>
-      </c>
-      <c r="X27" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Y27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="12">
+        <v>-0.107</v>
+      </c>
+      <c r="U27" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>-0.187</v>
+      </c>
+      <c r="X27" s="1">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4">
-        <v>-0.82899999999999996</v>
-      </c>
-      <c r="U28" s="4">
-        <v>0.151</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>-1.177</v>
-      </c>
-      <c r="X28" s="4">
-        <v>-0.54900000000000004</v>
-      </c>
-      <c r="Y28" s="4" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="U28" s="12">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>-0.82699999999999996</v>
+      </c>
+      <c r="X28" s="1">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2133,40 +2124,39 @@
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="U29" s="4">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="V29" s="4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="W29" s="4">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="X29" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="Y29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="U29" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="W29" s="1">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="X29" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
@@ -2196,7 +2186,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>37</v>
@@ -2223,7 +2213,7 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
